--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.346579</v>
+        <v>2.385742333333333</v>
       </c>
       <c r="N2">
-        <v>4.039737</v>
+        <v>7.157227</v>
       </c>
       <c r="O2">
-        <v>0.2423357964611511</v>
+        <v>0.2243329847197944</v>
       </c>
       <c r="P2">
-        <v>0.2423357964611511</v>
+        <v>0.2243329847197944</v>
       </c>
       <c r="Q2">
-        <v>263.169190684231</v>
+        <v>471.2875812735774</v>
       </c>
       <c r="R2">
-        <v>2368.522716158079</v>
+        <v>4241.588231462197</v>
       </c>
       <c r="S2">
-        <v>0.07502090387784036</v>
+        <v>0.0760198029167778</v>
       </c>
       <c r="T2">
-        <v>0.07502090387784036</v>
+        <v>0.07601980291677779</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.357845</v>
       </c>
       <c r="O3">
-        <v>0.02146641058183754</v>
+        <v>0.01121613676875902</v>
       </c>
       <c r="P3">
-        <v>0.02146641058183753</v>
+        <v>0.01121613676875902</v>
       </c>
       <c r="Q3">
-        <v>23.31185892556833</v>
+        <v>23.56330245231055</v>
       </c>
       <c r="R3">
-        <v>209.806730330115</v>
+        <v>212.069722070795</v>
       </c>
       <c r="S3">
-        <v>0.006645446312016298</v>
+        <v>0.003800816485875654</v>
       </c>
       <c r="T3">
-        <v>0.006645446312016298</v>
+        <v>0.003800816485875653</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H4">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9803886666666667</v>
+        <v>5.307525999999999</v>
       </c>
       <c r="N4">
-        <v>2.941166</v>
+        <v>15.922578</v>
       </c>
       <c r="O4">
-        <v>0.1764347048172834</v>
+        <v>0.4990703029502535</v>
       </c>
       <c r="P4">
-        <v>0.1764347048172834</v>
+        <v>0.4990703029502535</v>
       </c>
       <c r="Q4">
-        <v>191.6026404411913</v>
+        <v>1048.466574171795</v>
       </c>
       <c r="R4">
-        <v>1724.423763970722</v>
+        <v>9436.199167546156</v>
       </c>
       <c r="S4">
-        <v>0.05461962790517606</v>
+        <v>0.169120141290338</v>
       </c>
       <c r="T4">
-        <v>0.05461962790517606</v>
+        <v>0.1691201412903379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H5">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.271378</v>
+        <v>0.189174</v>
       </c>
       <c r="N5">
-        <v>0.814134</v>
+        <v>0.5675220000000001</v>
       </c>
       <c r="O5">
-        <v>0.04883828113466367</v>
+        <v>0.01778816071561614</v>
       </c>
       <c r="P5">
-        <v>0.04883828113466367</v>
+        <v>0.01778816071561614</v>
       </c>
       <c r="Q5">
-        <v>53.036864996042</v>
+        <v>37.37006953943801</v>
       </c>
       <c r="R5">
-        <v>477.331784964378</v>
+        <v>336.330625854942</v>
       </c>
       <c r="S5">
-        <v>0.01511907051317491</v>
+        <v>0.006027880712870442</v>
       </c>
       <c r="T5">
-        <v>0.01511907051317491</v>
+        <v>0.006027880712870441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H6">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I6">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J6">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.839038333333333</v>
+        <v>2.633102333333333</v>
       </c>
       <c r="N6">
-        <v>8.517115</v>
+        <v>7.899307</v>
       </c>
       <c r="O6">
-        <v>0.5109248070050643</v>
+        <v>0.247592414845577</v>
       </c>
       <c r="P6">
-        <v>0.5109248070050642</v>
+        <v>0.247592414845577</v>
       </c>
       <c r="Q6">
-        <v>554.8485610609116</v>
+        <v>520.1519093592308</v>
       </c>
       <c r="R6">
-        <v>4993.637049548205</v>
+        <v>4681.367184233077</v>
       </c>
       <c r="S6">
-        <v>0.1581691248047861</v>
+        <v>0.08390173475273641</v>
       </c>
       <c r="T6">
-        <v>0.1581691248047861</v>
+        <v>0.08390173475273639</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.346579</v>
+        <v>2.385742333333333</v>
       </c>
       <c r="N7">
-        <v>4.039737</v>
+        <v>7.157227</v>
       </c>
       <c r="O7">
-        <v>0.2423357964611511</v>
+        <v>0.2243329847197944</v>
       </c>
       <c r="P7">
-        <v>0.2423357964611511</v>
+        <v>0.2243329847197944</v>
       </c>
       <c r="Q7">
-        <v>107.4937020686273</v>
+        <v>190.4472560405629</v>
       </c>
       <c r="R7">
-        <v>967.4433186176459</v>
+        <v>1714.025304365066</v>
       </c>
       <c r="S7">
-        <v>0.03064292848793151</v>
+        <v>0.03071959339798628</v>
       </c>
       <c r="T7">
-        <v>0.03064292848793151</v>
+        <v>0.03071959339798628</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>0.357845</v>
       </c>
       <c r="O8">
-        <v>0.02146641058183754</v>
+        <v>0.01121613676875902</v>
       </c>
       <c r="P8">
-        <v>0.02146641058183753</v>
+        <v>0.01121613676875902</v>
       </c>
       <c r="Q8">
         <v>9.521927743501111</v>
@@ -948,10 +948,10 @@
         <v>85.69734969150998</v>
       </c>
       <c r="S8">
-        <v>0.002714389264638725</v>
+        <v>0.00153590949392864</v>
       </c>
       <c r="T8">
-        <v>0.002714389264638725</v>
+        <v>0.00153590949392864</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9803886666666667</v>
+        <v>5.307525999999999</v>
       </c>
       <c r="N9">
-        <v>2.941166</v>
+        <v>15.922578</v>
       </c>
       <c r="O9">
-        <v>0.1764347048172834</v>
+        <v>0.4990703029502535</v>
       </c>
       <c r="P9">
-        <v>0.1764347048172834</v>
+        <v>0.4990703029502535</v>
       </c>
       <c r="Q9">
-        <v>78.26173380553645</v>
+        <v>423.6852190369026</v>
       </c>
       <c r="R9">
-        <v>704.3556042498279</v>
+        <v>3813.166971332123</v>
       </c>
       <c r="S9">
-        <v>0.02230985319319935</v>
+        <v>0.06834142916072405</v>
       </c>
       <c r="T9">
-        <v>0.02230985319319935</v>
+        <v>0.06834142916072404</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>239.481758</v>
       </c>
       <c r="I10">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J10">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.271378</v>
+        <v>0.189174</v>
       </c>
       <c r="N10">
-        <v>0.814134</v>
+        <v>0.5675220000000001</v>
       </c>
       <c r="O10">
-        <v>0.04883828113466367</v>
+        <v>0.01778816071561614</v>
       </c>
       <c r="P10">
-        <v>0.04883828113466367</v>
+        <v>0.01778816071561614</v>
       </c>
       <c r="Q10">
-        <v>21.66336017417467</v>
+        <v>15.101240695964</v>
       </c>
       <c r="R10">
-        <v>194.970241567572</v>
+        <v>135.911166263676</v>
       </c>
       <c r="S10">
-        <v>0.006175513391489008</v>
+        <v>0.002435865885546451</v>
       </c>
       <c r="T10">
-        <v>0.006175513391489008</v>
+        <v>0.002435865885546451</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>239.481758</v>
       </c>
       <c r="I11">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J11">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.839038333333333</v>
+        <v>2.633102333333333</v>
       </c>
       <c r="N11">
-        <v>8.517115</v>
+        <v>7.899307</v>
       </c>
       <c r="O11">
-        <v>0.5109248070050643</v>
+        <v>0.247592414845577</v>
       </c>
       <c r="P11">
-        <v>0.5109248070050642</v>
+        <v>0.247592414845577</v>
       </c>
       <c r="Q11">
-        <v>226.6326303653522</v>
+        <v>210.1933252601896</v>
       </c>
       <c r="R11">
-        <v>2039.69367328817</v>
+        <v>1891.739927341706</v>
       </c>
       <c r="S11">
-        <v>0.06460552899074587</v>
+        <v>0.03390468112383006</v>
       </c>
       <c r="T11">
-        <v>0.06460552899074587</v>
+        <v>0.03390468112383005</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H12">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.346579</v>
+        <v>2.385742333333333</v>
       </c>
       <c r="N12">
-        <v>4.039737</v>
+        <v>7.157227</v>
       </c>
       <c r="O12">
-        <v>0.2423357964611511</v>
+        <v>0.2243329847197944</v>
       </c>
       <c r="P12">
-        <v>0.2423357964611511</v>
+        <v>0.2243329847197944</v>
       </c>
       <c r="Q12">
-        <v>218.8347854691224</v>
+        <v>355.056711870553</v>
       </c>
       <c r="R12">
-        <v>1969.513069222101</v>
+        <v>3195.510406834977</v>
       </c>
       <c r="S12">
-        <v>0.06238261919308534</v>
+        <v>0.05727148843544513</v>
       </c>
       <c r="T12">
-        <v>0.06238261919308534</v>
+        <v>0.05727148843544513</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H13">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.357845</v>
       </c>
       <c r="O13">
-        <v>0.02146641058183754</v>
+        <v>0.01121613676875902</v>
       </c>
       <c r="P13">
-        <v>0.02146641058183753</v>
+        <v>0.01121613676875902</v>
       </c>
       <c r="Q13">
-        <v>19.38466137924278</v>
+        <v>17.752024500455</v>
       </c>
       <c r="R13">
-        <v>174.461952413185</v>
+        <v>159.768220504095</v>
       </c>
       <c r="S13">
-        <v>0.005525931110156336</v>
+        <v>0.002863443590538887</v>
       </c>
       <c r="T13">
-        <v>0.005525931110156335</v>
+        <v>0.002863443590538887</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H14">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I14">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J14">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9803886666666667</v>
+        <v>5.307525999999999</v>
       </c>
       <c r="N14">
-        <v>2.941166</v>
+        <v>15.922578</v>
       </c>
       <c r="O14">
-        <v>0.1764347048172834</v>
+        <v>0.4990703029502535</v>
       </c>
       <c r="P14">
-        <v>0.1764347048172834</v>
+        <v>0.4990703029502535</v>
       </c>
       <c r="Q14">
-        <v>159.3245873776131</v>
+        <v>789.889462662342</v>
       </c>
       <c r="R14">
-        <v>1433.921286398518</v>
+        <v>7109.005163961077</v>
       </c>
       <c r="S14">
-        <v>0.04541821375046198</v>
+        <v>0.1274110408667314</v>
       </c>
       <c r="T14">
-        <v>0.04541821375046198</v>
+        <v>0.1274110408667314</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H15">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I15">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J15">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.271378</v>
+        <v>0.189174</v>
       </c>
       <c r="N15">
-        <v>0.814134</v>
+        <v>0.5675220000000001</v>
       </c>
       <c r="O15">
-        <v>0.04883828113466367</v>
+        <v>0.01778816071561614</v>
       </c>
       <c r="P15">
-        <v>0.04883828113466367</v>
+        <v>0.01778816071561614</v>
       </c>
       <c r="Q15">
-        <v>44.10208863426467</v>
+        <v>28.15371026155801</v>
       </c>
       <c r="R15">
-        <v>396.918797708382</v>
+        <v>253.383392354022</v>
       </c>
       <c r="S15">
-        <v>0.01257205884792583</v>
+        <v>0.004541260136063967</v>
       </c>
       <c r="T15">
-        <v>0.01257205884792583</v>
+        <v>0.004541260136063967</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H16">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I16">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J16">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.839038333333333</v>
+        <v>2.633102333333333</v>
       </c>
       <c r="N16">
-        <v>8.517115</v>
+        <v>7.899307</v>
       </c>
       <c r="O16">
-        <v>0.5109248070050643</v>
+        <v>0.247592414845577</v>
       </c>
       <c r="P16">
-        <v>0.5109248070050642</v>
+        <v>0.247592414845577</v>
       </c>
       <c r="Q16">
-        <v>461.3768257292106</v>
+        <v>391.869919659673</v>
       </c>
       <c r="R16">
-        <v>4152.391431562895</v>
+        <v>3526.829276937057</v>
       </c>
       <c r="S16">
-        <v>0.1315233990897712</v>
+        <v>0.06320954602928353</v>
       </c>
       <c r="T16">
-        <v>0.1315233990897712</v>
+        <v>0.06320954602928353</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H17">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.346579</v>
+        <v>2.385742333333333</v>
       </c>
       <c r="N17">
-        <v>4.039737</v>
+        <v>7.157227</v>
       </c>
       <c r="O17">
-        <v>0.2423357964611511</v>
+        <v>0.2243329847197944</v>
       </c>
       <c r="P17">
-        <v>0.2423357964611511</v>
+        <v>0.2243329847197944</v>
       </c>
       <c r="Q17">
-        <v>45.43166152238135</v>
+        <v>84.519342938877</v>
       </c>
       <c r="R17">
-        <v>408.884953701432</v>
+        <v>760.6740864498929</v>
       </c>
       <c r="S17">
-        <v>0.01295107646613048</v>
+        <v>0.0136331701665172</v>
       </c>
       <c r="T17">
-        <v>0.01295107646613048</v>
+        <v>0.0136331701665172</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H18">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I18">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J18">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>0.357845</v>
       </c>
       <c r="O18">
-        <v>0.02146641058183754</v>
+        <v>0.01121613676875902</v>
       </c>
       <c r="P18">
-        <v>0.02146641058183753</v>
+        <v>0.01121613676875902</v>
       </c>
       <c r="Q18">
-        <v>4.024393894324445</v>
+        <v>4.225774070595</v>
       </c>
       <c r="R18">
-        <v>36.21954504892</v>
+        <v>38.031966635355</v>
       </c>
       <c r="S18">
-        <v>0.001147222692472917</v>
+        <v>0.0006816273646535658</v>
       </c>
       <c r="T18">
-        <v>0.001147222692472916</v>
+        <v>0.0006816273646535657</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H19">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I19">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J19">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9803886666666667</v>
+        <v>5.307525999999999</v>
       </c>
       <c r="N19">
-        <v>2.941166</v>
+        <v>15.922578</v>
       </c>
       <c r="O19">
-        <v>0.1764347048172834</v>
+        <v>0.4990703029502535</v>
       </c>
       <c r="P19">
-        <v>0.1764347048172834</v>
+        <v>0.4990703029502535</v>
       </c>
       <c r="Q19">
-        <v>33.07692015424179</v>
+        <v>188.028943395678</v>
       </c>
       <c r="R19">
-        <v>297.6922813881761</v>
+        <v>1692.260490561102</v>
       </c>
       <c r="S19">
-        <v>0.00942914495809582</v>
+        <v>0.03032951384155387</v>
       </c>
       <c r="T19">
-        <v>0.009429144958095818</v>
+        <v>0.03032951384155386</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H20">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I20">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J20">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.271378</v>
+        <v>0.189174</v>
       </c>
       <c r="N20">
-        <v>0.814134</v>
+        <v>0.5675220000000001</v>
       </c>
       <c r="O20">
-        <v>0.04883828113466367</v>
+        <v>0.01778816071561614</v>
       </c>
       <c r="P20">
-        <v>0.04883828113466367</v>
+        <v>0.01778816071561614</v>
       </c>
       <c r="Q20">
-        <v>9.15590800140267</v>
+        <v>6.701839489422001</v>
       </c>
       <c r="R20">
-        <v>82.40317201262403</v>
+        <v>60.31655540479801</v>
       </c>
       <c r="S20">
-        <v>0.00261004904222148</v>
+        <v>0.001081022580287334</v>
       </c>
       <c r="T20">
-        <v>0.00261004904222148</v>
+        <v>0.001081022580287334</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H21">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I21">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J21">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.839038333333333</v>
+        <v>2.633102333333333</v>
       </c>
       <c r="N21">
-        <v>8.517115</v>
+        <v>7.899307</v>
       </c>
       <c r="O21">
-        <v>0.5109248070050643</v>
+        <v>0.247592414845577</v>
       </c>
       <c r="P21">
-        <v>0.5109248070050642</v>
+        <v>0.247592414845577</v>
       </c>
       <c r="Q21">
-        <v>95.78511814684892</v>
+        <v>93.28252929695701</v>
       </c>
       <c r="R21">
-        <v>862.0660633216402</v>
+        <v>839.542763672613</v>
       </c>
       <c r="S21">
-        <v>0.02730519527281774</v>
+        <v>0.01504669287819996</v>
       </c>
       <c r="T21">
-        <v>0.02730519527281774</v>
+        <v>0.01504669287819996</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H22">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I22">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J22">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.346579</v>
+        <v>2.385742333333333</v>
       </c>
       <c r="N22">
-        <v>4.039737</v>
+        <v>7.157227</v>
       </c>
       <c r="O22">
-        <v>0.2423357964611511</v>
+        <v>0.2243329847197944</v>
       </c>
       <c r="P22">
-        <v>0.2423357964611511</v>
+        <v>0.2243329847197944</v>
       </c>
       <c r="Q22">
-        <v>215.1712606475987</v>
+        <v>289.4497480245824</v>
       </c>
       <c r="R22">
-        <v>1936.541345828388</v>
+        <v>2605.047732221242</v>
       </c>
       <c r="S22">
-        <v>0.06133826843616341</v>
+        <v>0.04668892980306798</v>
       </c>
       <c r="T22">
-        <v>0.06133826843616341</v>
+        <v>0.04668892980306798</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H23">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I23">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J23">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>0.357845</v>
       </c>
       <c r="O23">
-        <v>0.02146641058183754</v>
+        <v>0.01121613676875902</v>
       </c>
       <c r="P23">
-        <v>0.02146641058183753</v>
+        <v>0.01121613676875902</v>
       </c>
       <c r="Q23">
-        <v>19.06014172864222</v>
+        <v>14.47182618098556</v>
       </c>
       <c r="R23">
-        <v>171.54127555778</v>
+        <v>130.24643562887</v>
       </c>
       <c r="S23">
-        <v>0.00543342120255326</v>
+        <v>0.002334339833762274</v>
       </c>
       <c r="T23">
-        <v>0.005433421202553259</v>
+        <v>0.002334339833762274</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H24">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I24">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J24">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.9803886666666667</v>
+        <v>5.307525999999999</v>
       </c>
       <c r="N24">
-        <v>2.941166</v>
+        <v>15.922578</v>
       </c>
       <c r="O24">
-        <v>0.1764347048172834</v>
+        <v>0.4990703029502535</v>
       </c>
       <c r="P24">
-        <v>0.1764347048172834</v>
+        <v>0.4990703029502535</v>
       </c>
       <c r="Q24">
-        <v>156.6573259580649</v>
+        <v>643.9346118268652</v>
       </c>
       <c r="R24">
-        <v>1409.915933622584</v>
+        <v>5795.411506441787</v>
       </c>
       <c r="S24">
-        <v>0.04465786501035018</v>
+        <v>0.1038681777909062</v>
       </c>
       <c r="T24">
-        <v>0.04465786501035018</v>
+        <v>0.1038681777909062</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H25">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I25">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J25">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.271378</v>
+        <v>0.189174</v>
       </c>
       <c r="N25">
-        <v>0.814134</v>
+        <v>0.5675220000000001</v>
       </c>
       <c r="O25">
-        <v>0.04883828113466367</v>
+        <v>0.01778816071561614</v>
       </c>
       <c r="P25">
-        <v>0.04883828113466367</v>
+        <v>0.01778816071561614</v>
       </c>
       <c r="Q25">
-        <v>43.36377321495733</v>
+        <v>22.951500615868</v>
       </c>
       <c r="R25">
-        <v>390.273958934616</v>
+        <v>206.563505542812</v>
       </c>
       <c r="S25">
-        <v>0.01236158933985244</v>
+        <v>0.003702131400847947</v>
       </c>
       <c r="T25">
-        <v>0.01236158933985244</v>
+        <v>0.003702131400847947</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H26">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I26">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J26">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.839038333333333</v>
+        <v>2.633102333333333</v>
       </c>
       <c r="N26">
-        <v>8.517115</v>
+        <v>7.899307</v>
       </c>
       <c r="O26">
-        <v>0.5109248070050643</v>
+        <v>0.247592414845577</v>
       </c>
       <c r="P26">
-        <v>0.5109248070050642</v>
+        <v>0.247592414845577</v>
       </c>
       <c r="Q26">
-        <v>453.6528916685845</v>
+        <v>319.4606543454358</v>
       </c>
       <c r="R26">
-        <v>4082.87602501726</v>
+        <v>2875.145889108922</v>
       </c>
       <c r="S26">
-        <v>0.1293215588469432</v>
+        <v>0.05152976006152712</v>
       </c>
       <c r="T26">
-        <v>0.1293215588469432</v>
+        <v>0.05152976006152711</v>
       </c>
     </row>
   </sheetData>
